--- a/Toefl Practice/Vocaublary/zhword/镇魂单词本.xlsx
+++ b/Toefl Practice/Vocaublary/zhword/镇魂单词本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="0" windowWidth="14360" windowHeight="18000"/>
+    <workbookView xWindow="14440" yWindow="0" windowWidth="14360" windowHeight="18000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Day1" sheetId="1" r:id="rId1"/>
@@ -13579,7 +13579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A197" workbookViewId="0">
       <selection activeCell="A225" sqref="A225"/>
     </sheetView>
   </sheetViews>
@@ -16022,12 +16022,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showRuler="0" topLeftCell="A193" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="52.1640625" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="67.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="49.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="52.1640625" style="2"/>
   </cols>
@@ -18462,14 +18462,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A94" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="63.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="32.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="58.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="38.1640625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="8.83203125" style="2"/>
   </cols>
@@ -20904,7 +20904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView topLeftCell="B203" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="B203" workbookViewId="0">
       <selection activeCell="B211" sqref="A1:C220"/>
     </sheetView>
   </sheetViews>
@@ -23347,7 +23347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="G211" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -25790,7 +25790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A5" sqref="A1:C216"/>
     </sheetView>
   </sheetViews>

--- a/Toefl Practice/Vocaublary/zhword/镇魂单词本.xlsx
+++ b/Toefl Practice/Vocaublary/zhword/镇魂单词本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="0" windowWidth="14360" windowHeight="18000" activeTab="2"/>
+    <workbookView xWindow="14440" yWindow="460" windowWidth="14360" windowHeight="17540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Day1" sheetId="1" r:id="rId1"/>
@@ -18462,7 +18462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A94" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A99" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -20904,14 +20904,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B203" workbookViewId="0">
-      <selection activeCell="B211" sqref="A1:C220"/>
+    <sheetView showRuler="0" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="63.1640625" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="70.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="34.1640625" style="4" customWidth="1"/>
     <col min="4" max="16384" width="63.1640625" style="4"/>
   </cols>
@@ -23347,14 +23347,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G211" sqref="A1:XFD1048576"/>
+    <sheetView showRuler="0" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="64.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="33.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="37" style="2" customWidth="1"/>
     <col min="4" max="16384" width="8.83203125" style="2"/>
   </cols>
@@ -25790,14 +25790,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C216"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:C216"/>
-    </sheetView>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A119" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="56.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="2" customWidth="1"/>
     <col min="4" max="16384" width="8.83203125" style="2"/>
   </cols>

--- a/Toefl Practice/Vocaublary/zhword/镇魂单词本.xlsx
+++ b/Toefl Practice/Vocaublary/zhword/镇魂单词本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="460" windowWidth="14360" windowHeight="17540" activeTab="5"/>
+    <workbookView minimized="1" xWindow="14440" yWindow="460" windowWidth="14360" windowHeight="17540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Day1" sheetId="1" r:id="rId1"/>
@@ -13579,14 +13579,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A197" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A193" workbookViewId="0">
       <selection activeCell="A225" sqref="A225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="64.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="2" customWidth="1"/>
     <col min="4" max="16384" width="8.83203125" style="2"/>
   </cols>
@@ -16022,7 +16022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A193" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A191" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="52.1640625" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
@@ -25790,7 +25790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C216"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A119" workbookViewId="0"/>
+    <sheetView showRuler="0" topLeftCell="A177" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
